--- a/Code/Results/Cases/Case_3_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.550016398192497</v>
+        <v>1.222612698847513</v>
       </c>
       <c r="C2">
-        <v>0.9760488246518264</v>
+        <v>0.3167053047682771</v>
       </c>
       <c r="D2">
-        <v>0.4552164807888346</v>
+        <v>0.4143797890649239</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4986614530686779</v>
+        <v>0.8364779490808232</v>
       </c>
       <c r="G2">
-        <v>0.178286889059855</v>
+        <v>0.2982334656762688</v>
       </c>
       <c r="H2">
-        <v>0.1643240869446529</v>
+        <v>0.4750511364174841</v>
       </c>
       <c r="I2">
-        <v>0.07032973559438727</v>
+        <v>0.3006879014162118</v>
       </c>
       <c r="J2">
-        <v>0.4447638335580422</v>
+        <v>0.3462298092455995</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6728627860334058</v>
+        <v>1.473643830561599</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.09525714440116</v>
+        <v>1.073878573760169</v>
       </c>
       <c r="C3">
-        <v>0.854900837466829</v>
+        <v>0.2766488744388482</v>
       </c>
       <c r="D3">
-        <v>0.4037796095525437</v>
+        <v>0.4016173592216035</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.466008218141063</v>
+        <v>0.8386635446224417</v>
       </c>
       <c r="G3">
-        <v>0.1677497236582681</v>
+        <v>0.3014336508809308</v>
       </c>
       <c r="H3">
-        <v>0.1662049632887204</v>
+        <v>0.4809699869310222</v>
       </c>
       <c r="I3">
-        <v>0.0818318291954041</v>
+        <v>0.309069743780551</v>
       </c>
       <c r="J3">
-        <v>0.392283159890269</v>
+        <v>0.3344768212709965</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6540651178799521</v>
+        <v>1.49254009397842</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.815886088921161</v>
+        <v>0.9822093549041711</v>
       </c>
       <c r="C4">
-        <v>0.7804529505251878</v>
+        <v>0.2519445951081991</v>
       </c>
       <c r="D4">
-        <v>0.3724915609933532</v>
+        <v>0.3939300330000606</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4474028882604273</v>
+        <v>0.8406840990580875</v>
       </c>
       <c r="G4">
-        <v>0.1622087622538402</v>
+        <v>0.303766264702432</v>
       </c>
       <c r="H4">
-        <v>0.1679392865832199</v>
+        <v>0.4849201392950206</v>
       </c>
       <c r="I4">
-        <v>0.08960133618029076</v>
+        <v>0.3145365653768306</v>
       </c>
       <c r="J4">
-        <v>0.3605956593474247</v>
+        <v>0.3274643494823266</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.6456960956630127</v>
+        <v>1.505573910301109</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.701975771554714</v>
+        <v>0.9447692203120255</v>
       </c>
       <c r="C5">
-        <v>0.7500925490691657</v>
+        <v>0.2418506508352039</v>
       </c>
       <c r="D5">
-        <v>0.3598084140254514</v>
+        <v>0.3908350144149608</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4401617658358816</v>
+        <v>0.8416778334776893</v>
       </c>
       <c r="G5">
-        <v>0.1601691197578745</v>
+        <v>0.3048089176181961</v>
       </c>
       <c r="H5">
-        <v>0.1687849244117956</v>
+        <v>0.4866092254590697</v>
       </c>
       <c r="I5">
-        <v>0.0929366008072634</v>
+        <v>0.3168446627244541</v>
       </c>
       <c r="J5">
-        <v>0.3478049225395097</v>
+        <v>0.3246579472330211</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.6430368843354159</v>
+        <v>1.511244291836348</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.683056404362958</v>
+        <v>0.938547312496155</v>
       </c>
       <c r="C6">
-        <v>0.7450497002660939</v>
+        <v>0.2401729664424295</v>
       </c>
       <c r="D6">
-        <v>0.3577062347300028</v>
+        <v>0.3903233674980555</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.438979327007452</v>
+        <v>0.8418531219083718</v>
       </c>
       <c r="G6">
-        <v>0.1598431944863634</v>
+        <v>0.304987600885319</v>
       </c>
       <c r="H6">
-        <v>0.1689335370878311</v>
+        <v>0.4868944880871737</v>
       </c>
       <c r="I6">
-        <v>0.09350038710645325</v>
+        <v>0.3172327651619957</v>
       </c>
       <c r="J6">
-        <v>0.3456880553170123</v>
+        <v>0.3241950397753897</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.6426393767585381</v>
+        <v>1.512207508906371</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.814350149728853</v>
+        <v>0.9817047613000227</v>
       </c>
       <c r="C7">
-        <v>0.7800435980404927</v>
+        <v>0.2518085719190424</v>
       </c>
       <c r="D7">
-        <v>0.3723202494274744</v>
+        <v>0.39388813987388</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4473038812395558</v>
+        <v>0.8406968115924229</v>
       </c>
       <c r="G7">
-        <v>0.1621803904573511</v>
+        <v>0.3037799538840531</v>
       </c>
       <c r="H7">
-        <v>0.167950137578444</v>
+        <v>0.4849425976580051</v>
       </c>
       <c r="I7">
-        <v>0.0896456431354391</v>
+        <v>0.3145673682623675</v>
       </c>
       <c r="J7">
-        <v>0.3604226804155957</v>
+        <v>0.327426293952314</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.6456572508477478</v>
+        <v>1.50564893075493</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.393228662107617</v>
+        <v>1.171402576358446</v>
       </c>
       <c r="C8">
-        <v>0.9342858279522659</v>
+        <v>0.3029170201437807</v>
       </c>
       <c r="D8">
-        <v>0.4374155662850114</v>
+        <v>0.4099485217311383</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4870891153742676</v>
+        <v>0.8370905218483742</v>
       </c>
       <c r="G8">
-        <v>0.1744514790926317</v>
+        <v>0.2992603572311268</v>
       </c>
       <c r="H8">
-        <v>0.1648481373258477</v>
+        <v>0.4770263306468934</v>
       </c>
       <c r="I8">
-        <v>0.07414352558832427</v>
+        <v>0.3035113389170938</v>
       </c>
       <c r="J8">
-        <v>0.4265494881822889</v>
+        <v>0.342135030054024</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6656940757420244</v>
+        <v>1.479861597534324</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.528638323819791</v>
+        <v>1.540551026138019</v>
       </c>
       <c r="C9">
-        <v>1.236596220521676</v>
+        <v>0.4022426811935702</v>
       </c>
       <c r="D9">
-        <v>0.5677476555282794</v>
+        <v>0.4426172444995871</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.5776341661928228</v>
+        <v>0.8354172772014508</v>
       </c>
       <c r="G9">
-        <v>0.2066111117804041</v>
+        <v>0.2933314174469999</v>
       </c>
       <c r="H9">
-        <v>0.1636874545974578</v>
+        <v>0.4640131813874433</v>
       </c>
       <c r="I9">
-        <v>0.04976651187072445</v>
+        <v>0.2843820624768298</v>
       </c>
       <c r="J9">
-        <v>0.5610842344788836</v>
+        <v>0.3726004020783904</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7323799031122746</v>
+        <v>1.440693541859119</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.365152578504308</v>
+        <v>1.809914975232971</v>
       </c>
       <c r="C10">
-        <v>1.459140963432787</v>
+        <v>0.4746377333627265</v>
       </c>
       <c r="D10">
-        <v>0.6656573629686307</v>
+        <v>0.4673286673365169</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6533776706925778</v>
+        <v>0.8375005616469622</v>
       </c>
       <c r="G10">
-        <v>0.236244853876336</v>
+        <v>0.2907871219881244</v>
       </c>
       <c r="H10">
-        <v>0.1663139033498027</v>
+        <v>0.4559879935132756</v>
       </c>
       <c r="I10">
-        <v>0.03613107865879872</v>
+        <v>0.271896249695418</v>
       </c>
       <c r="J10">
-        <v>0.6638024931455959</v>
+        <v>0.3959797135995586</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.801346124635586</v>
+        <v>1.418926843147446</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.746747866672251</v>
+        <v>1.932032091250221</v>
       </c>
       <c r="C11">
-        <v>1.560609183552856</v>
+        <v>0.5074399961117138</v>
       </c>
       <c r="D11">
-        <v>0.7107925088114939</v>
+        <v>0.4787235117588295</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6902155641567731</v>
+        <v>0.8391722904748491</v>
       </c>
       <c r="G11">
-        <v>0.2512852619118391</v>
+        <v>0.2900279917828215</v>
       </c>
       <c r="H11">
-        <v>0.1683782750233362</v>
+        <v>0.4526716461062321</v>
       </c>
       <c r="I11">
-        <v>0.03099912568363372</v>
+        <v>0.2665594605712673</v>
       </c>
       <c r="J11">
-        <v>0.7115933007071078</v>
+        <v>0.4068337783279929</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8378372685039892</v>
+        <v>1.41055960998041</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.891447846010806</v>
+        <v>1.978212188632654</v>
       </c>
       <c r="C12">
-        <v>1.599077442726866</v>
+        <v>0.5198419056442845</v>
       </c>
       <c r="D12">
-        <v>0.7279808234777079</v>
+        <v>0.4830603583512527</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7045415987988406</v>
+        <v>0.8399097929076049</v>
       </c>
       <c r="G12">
-        <v>0.2572279314200614</v>
+        <v>0.2897981953008966</v>
       </c>
       <c r="H12">
-        <v>0.1692953299859212</v>
+        <v>0.4514640039606093</v>
       </c>
       <c r="I12">
-        <v>0.0292226717309152</v>
+        <v>0.2645881314343539</v>
       </c>
       <c r="J12">
-        <v>0.7298631850656818</v>
+        <v>0.4109754668990888</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8524616998740839</v>
+        <v>1.407612858633982</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.860274536813108</v>
+        <v>1.968269326581776</v>
       </c>
       <c r="C13">
-        <v>1.590790449688257</v>
+        <v>0.5171718169251562</v>
       </c>
       <c r="D13">
-        <v>0.7242745312343288</v>
+        <v>0.4821253716033596</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.7014389280609237</v>
+        <v>0.8397463075068714</v>
       </c>
       <c r="G13">
-        <v>0.2559366947159702</v>
+        <v>0.2898451149098165</v>
       </c>
       <c r="H13">
-        <v>0.1690916355141994</v>
+        <v>0.4517219464832181</v>
       </c>
       <c r="I13">
-        <v>0.02959762429714186</v>
+        <v>0.2650104823905162</v>
       </c>
       <c r="J13">
-        <v>0.7259204360048415</v>
+        <v>0.4100820789906976</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8492750477099662</v>
+        <v>1.408237615371803</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.758648175228018</v>
+        <v>1.935832634929852</v>
       </c>
       <c r="C14">
-        <v>1.563773032145434</v>
+        <v>0.5084607060308599</v>
       </c>
       <c r="D14">
-        <v>0.7122045995072881</v>
+        <v>0.4790798696820389</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6913864307917237</v>
+        <v>0.8392308698699225</v>
       </c>
       <c r="G14">
-        <v>0.251769077686113</v>
+        <v>0.2900079282346795</v>
       </c>
       <c r="H14">
-        <v>0.1684509480567655</v>
+        <v>0.4525713263143629</v>
       </c>
       <c r="I14">
-        <v>0.03084955349355578</v>
+        <v>0.2663962826259434</v>
       </c>
       <c r="J14">
-        <v>0.713092799306267</v>
+        <v>0.4071738862017042</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8390238556014253</v>
+        <v>1.41031272888506</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.696426315907104</v>
+        <v>1.915955933768942</v>
       </c>
       <c r="C15">
-        <v>1.547230220161055</v>
+        <v>0.5031223231403601</v>
       </c>
       <c r="D15">
-        <v>0.7048243405623964</v>
+        <v>0.4772172533549508</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6852790413722829</v>
+        <v>0.8389287626145148</v>
       </c>
       <c r="G15">
-        <v>0.2492491917129698</v>
+        <v>0.2901151781389828</v>
       </c>
       <c r="H15">
-        <v>0.1680764493643778</v>
+        <v>0.4530978744910925</v>
       </c>
       <c r="I15">
-        <v>0.03163853107896042</v>
+        <v>0.2672515921201359</v>
       </c>
       <c r="J15">
-        <v>0.7052585794935027</v>
+        <v>0.4053966362678949</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.8328518400490026</v>
+        <v>1.411612704432187</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.34023958317789</v>
+        <v>1.801925675882728</v>
       </c>
       <c r="C16">
-        <v>1.452515366242835</v>
+        <v>0.4724913304020788</v>
       </c>
       <c r="D16">
-        <v>0.6627205774682068</v>
+        <v>0.4665870585289156</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6510209903172921</v>
+        <v>0.8374059087349224</v>
       </c>
       <c r="G16">
-        <v>0.2352952350478716</v>
+        <v>0.2908447813881878</v>
       </c>
       <c r="H16">
-        <v>0.1661973516017099</v>
+        <v>0.4562114617969613</v>
       </c>
       <c r="I16">
-        <v>0.03648909617502749</v>
+        <v>0.2722519474364073</v>
       </c>
       <c r="J16">
-        <v>0.6607022949783357</v>
+        <v>0.3952747792514941</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.7990702040721516</v>
+        <v>1.419504632300402</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.122033471981126</v>
+        <v>1.731862692796085</v>
       </c>
       <c r="C17">
-        <v>1.394477793471083</v>
+        <v>0.4536661747603148</v>
       </c>
       <c r="D17">
-        <v>0.637051354480235</v>
+        <v>0.4601049450990899</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.630638111159648</v>
+        <v>0.8366573718863037</v>
       </c>
       <c r="G17">
-        <v>0.2271502216056547</v>
+        <v>0.2913946622679973</v>
       </c>
       <c r="H17">
-        <v>0.1652743872210038</v>
+        <v>0.4582072585495212</v>
       </c>
       <c r="I17">
-        <v>0.03974794675597426</v>
+        <v>0.2754075598417494</v>
       </c>
       <c r="J17">
-        <v>0.6336543547657811</v>
+        <v>0.3891213912392288</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.7797053855658902</v>
+        <v>1.424739873327866</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.996623975808632</v>
+        <v>1.691525155972613</v>
       </c>
       <c r="C18">
-        <v>1.36111718086363</v>
+        <v>0.4428261977390662</v>
       </c>
       <c r="D18">
-        <v>0.6223424435316929</v>
+        <v>0.4563910647746923</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6191364361917167</v>
+        <v>0.8362949624410092</v>
       </c>
       <c r="G18">
-        <v>0.2226107825339696</v>
+        <v>0.2917484038354132</v>
       </c>
       <c r="H18">
-        <v>0.1648247141366568</v>
+        <v>0.4593866523320997</v>
       </c>
       <c r="I18">
-        <v>0.041722322533575</v>
+        <v>0.2772548602125307</v>
       </c>
       <c r="J18">
-        <v>0.6181959595694337</v>
+        <v>0.3856027077237343</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.7690445054074928</v>
+        <v>1.427895420563942</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.954177789415894</v>
+        <v>1.677860922143509</v>
       </c>
       <c r="C19">
-        <v>1.349825144499675</v>
+        <v>0.4391538895376357</v>
       </c>
       <c r="D19">
-        <v>0.617371444366313</v>
+        <v>0.4551360984943926</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6152793080733474</v>
+        <v>0.8361839476829545</v>
       </c>
       <c r="G19">
-        <v>0.2210981011789244</v>
+        <v>0.2918745971061227</v>
       </c>
       <c r="H19">
-        <v>0.1646861062416178</v>
+        <v>0.4597913755455778</v>
       </c>
       <c r="I19">
-        <v>0.04240760336752647</v>
+        <v>0.2778858596885829</v>
       </c>
       <c r="J19">
-        <v>0.6129784213364786</v>
+        <v>0.3844148757481918</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.7655148304662163</v>
+        <v>1.428988598446026</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.145251539583626</v>
+        <v>1.739325091253306</v>
       </c>
       <c r="C20">
-        <v>1.400653734424793</v>
+        <v>0.4556714179889241</v>
       </c>
       <c r="D20">
-        <v>0.6397780820783794</v>
+        <v>0.4607934820925834</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6327846883225305</v>
+        <v>0.8367300013288528</v>
       </c>
       <c r="G20">
-        <v>0.2280020677668375</v>
+        <v>0.2913322461775394</v>
       </c>
       <c r="H20">
-        <v>0.1653641632674194</v>
+        <v>0.4579915453634129</v>
       </c>
       <c r="I20">
-        <v>0.03939059922011889</v>
+        <v>0.2750682971983416</v>
       </c>
       <c r="J20">
-        <v>0.6365232852107141</v>
+        <v>0.3897742993861328</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.7817169185653796</v>
+        <v>1.424167622919555</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.788492541205301</v>
+        <v>1.945361810524389</v>
       </c>
       <c r="C21">
-        <v>1.571707402441575</v>
+        <v>0.5110199087277465</v>
       </c>
       <c r="D21">
-        <v>0.7157471171089753</v>
+        <v>0.4799738156135618</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.6943285974470115</v>
+        <v>0.8393794288200951</v>
       </c>
       <c r="G21">
-        <v>0.2529863083031927</v>
+        <v>0.2899585377222138</v>
       </c>
       <c r="H21">
-        <v>0.1686353752115295</v>
+        <v>0.4523205342424035</v>
       </c>
       <c r="I21">
-        <v>0.0304771943247184</v>
+        <v>0.2659878913509157</v>
       </c>
       <c r="J21">
-        <v>0.7168557405147027</v>
+        <v>0.4080272379676018</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.842012419880291</v>
+        <v>1.409697191311764</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.210066565820227</v>
+        <v>2.079650149088764</v>
       </c>
       <c r="C22">
-        <v>1.683765838598333</v>
+        <v>0.5470787570482685</v>
       </c>
       <c r="D22">
-        <v>0.7659661534766542</v>
+        <v>0.4926366308290824</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.7367621630785237</v>
+        <v>0.8417199828360964</v>
       </c>
       <c r="G22">
-        <v>0.2707676478283929</v>
+        <v>0.2893970655337768</v>
       </c>
       <c r="H22">
-        <v>0.1715673910265707</v>
+        <v>0.448895118889169</v>
       </c>
       <c r="I22">
-        <v>0.02563128417293647</v>
+        <v>0.2603425332772238</v>
       </c>
       <c r="J22">
-        <v>0.7703736051204828</v>
+        <v>0.4201401541557317</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8861534721150974</v>
+        <v>1.401532882039987</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.984940611893819</v>
+        <v>2.008012614282791</v>
       </c>
       <c r="C23">
-        <v>1.623929946359226</v>
+        <v>0.5278442231141298</v>
       </c>
       <c r="D23">
-        <v>0.7391073969282047</v>
+        <v>0.4858666626041099</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.7139004102766506</v>
+        <v>0.8404149497763882</v>
       </c>
       <c r="G23">
-        <v>0.2611364813863446</v>
+        <v>0.2896658293066494</v>
       </c>
       <c r="H23">
-        <v>0.1699262625787838</v>
+        <v>0.4506975880897173</v>
       </c>
       <c r="I23">
-        <v>0.02812350292656074</v>
+        <v>0.2633290170336258</v>
       </c>
       <c r="J23">
-        <v>0.7417102647764438</v>
+        <v>0.4136584530219096</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8621368402555731</v>
+        <v>1.405771669184517</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.134754529704708</v>
+        <v>1.735951519468301</v>
       </c>
       <c r="C24">
-        <v>1.397861573783473</v>
+        <v>0.4547649008679855</v>
       </c>
       <c r="D24">
-        <v>0.6385451777630351</v>
+        <v>0.4604821547160611</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6318135482996752</v>
+        <v>0.836696953971817</v>
       </c>
       <c r="G24">
-        <v>0.2276165036746534</v>
+        <v>0.2913603473767239</v>
       </c>
       <c r="H24">
-        <v>0.1653233241392229</v>
+        <v>0.4580889696743711</v>
       </c>
       <c r="I24">
-        <v>0.03955184297778569</v>
+        <v>0.2752215747644655</v>
       </c>
       <c r="J24">
-        <v>0.6352259572002481</v>
+        <v>0.3894790604950771</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.7808060388975093</v>
+        <v>1.424425883444897</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.221240145341937</v>
+        <v>1.441003315566377</v>
       </c>
       <c r="C25">
-        <v>1.154777827674593</v>
+        <v>0.3754719321167386</v>
       </c>
       <c r="D25">
-        <v>0.5321508977082203</v>
+        <v>0.4336544106836868</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.5516411302582966</v>
+        <v>0.8352897452290335</v>
       </c>
       <c r="G25">
-        <v>0.1969380353614056</v>
+        <v>0.2946188591388221</v>
       </c>
       <c r="H25">
-        <v>0.1634269842493978</v>
+        <v>0.4672642825949467</v>
       </c>
       <c r="I25">
-        <v>0.05565644195506536</v>
+        <v>0.289282535426385</v>
       </c>
       <c r="J25">
-        <v>0.5240784234264737</v>
+        <v>0.364184298307535</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7110820158573006</v>
+        <v>1.450062801106597</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_164/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_164/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.222612698847513</v>
+        <v>3.550016398192213</v>
       </c>
       <c r="C2">
-        <v>0.3167053047682771</v>
+        <v>0.976048824651798</v>
       </c>
       <c r="D2">
-        <v>0.4143797890649239</v>
+        <v>0.4552164807887493</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8364779490808232</v>
+        <v>0.498661453068685</v>
       </c>
       <c r="G2">
-        <v>0.2982334656762688</v>
+        <v>0.1782868890598124</v>
       </c>
       <c r="H2">
-        <v>0.4750511364174841</v>
+        <v>0.1643240869446458</v>
       </c>
       <c r="I2">
-        <v>0.3006879014162118</v>
+        <v>0.07032973559438904</v>
       </c>
       <c r="J2">
-        <v>0.3462298092455995</v>
+        <v>0.4447638335580848</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.473643830561599</v>
+        <v>0.6728627860334058</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.073878573760169</v>
+        <v>3.095257144401558</v>
       </c>
       <c r="C3">
-        <v>0.2766488744388482</v>
+        <v>0.8549008374667721</v>
       </c>
       <c r="D3">
-        <v>0.4016173592216035</v>
+        <v>0.4037796095525437</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8386635446224417</v>
+        <v>0.466008218141063</v>
       </c>
       <c r="G3">
-        <v>0.3014336508809308</v>
+        <v>0.1677497236582113</v>
       </c>
       <c r="H3">
-        <v>0.4809699869310222</v>
+        <v>0.1662049632887204</v>
       </c>
       <c r="I3">
-        <v>0.309069743780551</v>
+        <v>0.08183182919542098</v>
       </c>
       <c r="J3">
-        <v>0.3344768212709965</v>
+        <v>0.3922831598902121</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.49254009397842</v>
+        <v>0.6540651178799948</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9822093549041711</v>
+        <v>2.815886088921104</v>
       </c>
       <c r="C4">
-        <v>0.2519445951081991</v>
+        <v>0.7804529505249604</v>
       </c>
       <c r="D4">
-        <v>0.3939300330000606</v>
+        <v>0.3724915609934527</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8406840990580875</v>
+        <v>0.4474028882604131</v>
       </c>
       <c r="G4">
-        <v>0.303766264702432</v>
+        <v>0.1622087622538331</v>
       </c>
       <c r="H4">
-        <v>0.4849201392950206</v>
+        <v>0.1679392865832199</v>
       </c>
       <c r="I4">
-        <v>0.3145365653768306</v>
+        <v>0.08960133618028898</v>
       </c>
       <c r="J4">
-        <v>0.3274643494823266</v>
+        <v>0.3605956593474247</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.505573910301109</v>
+        <v>0.6456960956630127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9447692203120255</v>
+        <v>2.701975771554601</v>
       </c>
       <c r="C5">
-        <v>0.2418506508352039</v>
+        <v>0.7500925490689383</v>
       </c>
       <c r="D5">
-        <v>0.3908350144149608</v>
+        <v>0.3598084140254514</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.8416778334776893</v>
+        <v>0.4401617658358958</v>
       </c>
       <c r="G5">
-        <v>0.3048089176181961</v>
+        <v>0.1601691197579314</v>
       </c>
       <c r="H5">
-        <v>0.4866092254590697</v>
+        <v>0.1687849244117956</v>
       </c>
       <c r="I5">
-        <v>0.3168446627244541</v>
+        <v>0.09293660080727406</v>
       </c>
       <c r="J5">
-        <v>0.3246579472330211</v>
+        <v>0.3478049225394528</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.511244291836348</v>
+        <v>0.6430368843354302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.938547312496155</v>
+        <v>2.683056404363185</v>
       </c>
       <c r="C6">
-        <v>0.2401729664424295</v>
+        <v>0.7450497002661791</v>
       </c>
       <c r="D6">
-        <v>0.3903233674980555</v>
+        <v>0.3577062347298465</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8418531219083718</v>
+        <v>0.4389793270074591</v>
       </c>
       <c r="G6">
-        <v>0.304987600885319</v>
+        <v>0.1598431944864274</v>
       </c>
       <c r="H6">
-        <v>0.4868944880871737</v>
+        <v>0.1689335370878311</v>
       </c>
       <c r="I6">
-        <v>0.3172327651619957</v>
+        <v>0.09350038710645414</v>
       </c>
       <c r="J6">
-        <v>0.3241950397753897</v>
+        <v>0.3456880553170834</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.512207508906371</v>
+        <v>0.6426393767584813</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9817047613000227</v>
+        <v>2.814350149728909</v>
       </c>
       <c r="C7">
-        <v>0.2518085719190424</v>
+        <v>0.7800435980404643</v>
       </c>
       <c r="D7">
-        <v>0.39388813987388</v>
+        <v>0.3723202494275739</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8406968115924229</v>
+        <v>0.4473038812395487</v>
       </c>
       <c r="G7">
-        <v>0.3037799538840531</v>
+        <v>0.1621803904572943</v>
       </c>
       <c r="H7">
-        <v>0.4849425976580051</v>
+        <v>0.1679501375784369</v>
       </c>
       <c r="I7">
-        <v>0.3145673682623675</v>
+        <v>0.08964564313543821</v>
       </c>
       <c r="J7">
-        <v>0.327426293952314</v>
+        <v>0.3604226804155957</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.50564893075493</v>
+        <v>0.6456572508477905</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.171402576358446</v>
+        <v>3.39322866210756</v>
       </c>
       <c r="C8">
-        <v>0.3029170201437807</v>
+        <v>0.9342858279522943</v>
       </c>
       <c r="D8">
-        <v>0.4099485217311383</v>
+        <v>0.4374155662848409</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8370905218483742</v>
+        <v>0.4870891153742534</v>
       </c>
       <c r="G8">
-        <v>0.2992603572311268</v>
+        <v>0.1744514790927099</v>
       </c>
       <c r="H8">
-        <v>0.4770263306468934</v>
+        <v>0.1648481373258406</v>
       </c>
       <c r="I8">
-        <v>0.3035113389170938</v>
+        <v>0.0741435255883367</v>
       </c>
       <c r="J8">
-        <v>0.342135030054024</v>
+        <v>0.426549488182232</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.479861597534324</v>
+        <v>0.6656940757419534</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.540551026138019</v>
+        <v>4.528638323819791</v>
       </c>
       <c r="C9">
-        <v>0.4022426811935702</v>
+        <v>1.236596220521335</v>
       </c>
       <c r="D9">
-        <v>0.4426172444995871</v>
+        <v>0.567747655528251</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8354172772014508</v>
+        <v>0.577634166192837</v>
       </c>
       <c r="G9">
-        <v>0.2933314174469999</v>
+        <v>0.206611111780397</v>
       </c>
       <c r="H9">
-        <v>0.4640131813874433</v>
+        <v>0.1636874545974578</v>
       </c>
       <c r="I9">
-        <v>0.2843820624768298</v>
+        <v>0.04976651187072356</v>
       </c>
       <c r="J9">
-        <v>0.3726004020783904</v>
+        <v>0.5610842344787983</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.440693541859119</v>
+        <v>0.7323799031122746</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.809914975232971</v>
+        <v>5.365152578504535</v>
       </c>
       <c r="C10">
-        <v>0.4746377333627265</v>
+        <v>1.459140963432731</v>
       </c>
       <c r="D10">
-        <v>0.4673286673365169</v>
+        <v>0.6656573629687159</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.8375005616469622</v>
+        <v>0.6533776706925636</v>
       </c>
       <c r="G10">
-        <v>0.2907871219881244</v>
+        <v>0.236244853876272</v>
       </c>
       <c r="H10">
-        <v>0.4559879935132756</v>
+        <v>0.166313903349689</v>
       </c>
       <c r="I10">
-        <v>0.271896249695418</v>
+        <v>0.03613107865879694</v>
       </c>
       <c r="J10">
-        <v>0.3959797135995586</v>
+        <v>0.6638024931455959</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.418926843147446</v>
+        <v>0.8013461246355718</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.932032091250221</v>
+        <v>5.746747866672251</v>
       </c>
       <c r="C11">
-        <v>0.5074399961117138</v>
+        <v>1.560609183552856</v>
       </c>
       <c r="D11">
-        <v>0.4787235117588295</v>
+        <v>0.7107925088113802</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8391722904748491</v>
+        <v>0.6902155641567731</v>
       </c>
       <c r="G11">
-        <v>0.2900279917828215</v>
+        <v>0.2512852619118391</v>
       </c>
       <c r="H11">
-        <v>0.4526716461062321</v>
+        <v>0.1683782750234499</v>
       </c>
       <c r="I11">
-        <v>0.2665594605712673</v>
+        <v>0.0309991256836355</v>
       </c>
       <c r="J11">
-        <v>0.4068337783279929</v>
+        <v>0.711593300707051</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.41055960998041</v>
+        <v>0.8378372685040034</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.978212188632654</v>
+        <v>5.891447846011204</v>
       </c>
       <c r="C12">
-        <v>0.5198419056442845</v>
+        <v>1.599077442727321</v>
       </c>
       <c r="D12">
-        <v>0.4830603583512527</v>
+        <v>0.7279808234775658</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8399097929076049</v>
+        <v>0.7045415987988406</v>
       </c>
       <c r="G12">
-        <v>0.2897981953008966</v>
+        <v>0.2572279314201324</v>
       </c>
       <c r="H12">
-        <v>0.4514640039606093</v>
+        <v>0.1692953299859354</v>
       </c>
       <c r="I12">
-        <v>0.2645881314343539</v>
+        <v>0.02922267173091342</v>
       </c>
       <c r="J12">
-        <v>0.4109754668990888</v>
+        <v>0.7298631850657102</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.407612858633982</v>
+        <v>0.8524616998740839</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.968269326581776</v>
+        <v>5.860274536812824</v>
       </c>
       <c r="C13">
-        <v>0.5171718169251562</v>
+        <v>1.590790449688257</v>
       </c>
       <c r="D13">
-        <v>0.4821253716033596</v>
+        <v>0.7242745312345562</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8397463075068714</v>
+        <v>0.7014389280609237</v>
       </c>
       <c r="G13">
-        <v>0.2898451149098165</v>
+        <v>0.2559366947158566</v>
       </c>
       <c r="H13">
-        <v>0.4517219464832181</v>
+        <v>0.1690916355141923</v>
       </c>
       <c r="I13">
-        <v>0.2650104823905162</v>
+        <v>0.02959762429714097</v>
       </c>
       <c r="J13">
-        <v>0.4100820789906976</v>
+        <v>0.7259204360048841</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.408237615371803</v>
+        <v>0.849275047710023</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.935832634929852</v>
+        <v>5.758648175228075</v>
       </c>
       <c r="C14">
-        <v>0.5084607060308599</v>
+        <v>1.563773032146003</v>
       </c>
       <c r="D14">
-        <v>0.4790798696820389</v>
+        <v>0.7122045995073165</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8392308698699225</v>
+        <v>0.6913864307917237</v>
       </c>
       <c r="G14">
-        <v>0.2900079282346795</v>
+        <v>0.2517690776860988</v>
       </c>
       <c r="H14">
-        <v>0.4525713263143629</v>
+        <v>0.1684509480566518</v>
       </c>
       <c r="I14">
-        <v>0.2663962826259434</v>
+        <v>0.03084955349355489</v>
       </c>
       <c r="J14">
-        <v>0.4071738862017042</v>
+        <v>0.713092799306267</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.41031272888506</v>
+        <v>0.8390238556014253</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.915955933768942</v>
+        <v>5.696426315907104</v>
       </c>
       <c r="C15">
-        <v>0.5031223231403601</v>
+        <v>1.547230220160884</v>
       </c>
       <c r="D15">
-        <v>0.4772172533549508</v>
+        <v>0.7048243405624248</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.8389287626145148</v>
+        <v>0.6852790413722829</v>
       </c>
       <c r="G15">
-        <v>0.2901151781389828</v>
+        <v>0.2492491917130266</v>
       </c>
       <c r="H15">
-        <v>0.4530978744910925</v>
+        <v>0.1680764493643707</v>
       </c>
       <c r="I15">
-        <v>0.2672515921201359</v>
+        <v>0.03163853107894443</v>
       </c>
       <c r="J15">
-        <v>0.4053966362678949</v>
+        <v>0.7052585794935169</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.411612704432187</v>
+        <v>0.8328518400490026</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.801925675882728</v>
+        <v>5.340239583177663</v>
       </c>
       <c r="C16">
-        <v>0.4724913304020788</v>
+        <v>1.452515366242551</v>
       </c>
       <c r="D16">
-        <v>0.4665870585289156</v>
+        <v>0.6627205774682636</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.8374059087349224</v>
+        <v>0.6510209903173205</v>
       </c>
       <c r="G16">
-        <v>0.2908447813881878</v>
+        <v>0.2352952350479356</v>
       </c>
       <c r="H16">
-        <v>0.4562114617969613</v>
+        <v>0.1661973516017028</v>
       </c>
       <c r="I16">
-        <v>0.2722519474364073</v>
+        <v>0.03648909617502571</v>
       </c>
       <c r="J16">
-        <v>0.3952747792514941</v>
+        <v>0.6607022949783641</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.419504632300402</v>
+        <v>0.7990702040722226</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.731862692796085</v>
+        <v>5.122033471981297</v>
       </c>
       <c r="C17">
-        <v>0.4536661747603148</v>
+        <v>1.39447779347131</v>
       </c>
       <c r="D17">
-        <v>0.4601049450990899</v>
+        <v>0.6370513544802066</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.8366573718863037</v>
+        <v>0.6306381111596338</v>
       </c>
       <c r="G17">
-        <v>0.2913946622679973</v>
+        <v>0.2271502216057186</v>
       </c>
       <c r="H17">
-        <v>0.4582072585495212</v>
+        <v>0.1652743872208902</v>
       </c>
       <c r="I17">
-        <v>0.2754075598417494</v>
+        <v>0.0397479467559867</v>
       </c>
       <c r="J17">
-        <v>0.3891213912392288</v>
+        <v>0.6336543547657243</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.424739873327866</v>
+        <v>0.7797053855658902</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.691525155972613</v>
+        <v>4.996623975808632</v>
       </c>
       <c r="C18">
-        <v>0.4428261977390662</v>
+        <v>1.361117180863573</v>
       </c>
       <c r="D18">
-        <v>0.4563910647746923</v>
+        <v>0.6223424435316929</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8362949624410092</v>
+        <v>0.6191364361917167</v>
       </c>
       <c r="G18">
-        <v>0.2917484038354132</v>
+        <v>0.2226107825340264</v>
       </c>
       <c r="H18">
-        <v>0.4593866523320997</v>
+        <v>0.1648247141366568</v>
       </c>
       <c r="I18">
-        <v>0.2772548602125307</v>
+        <v>0.04172232253356256</v>
       </c>
       <c r="J18">
-        <v>0.3856027077237343</v>
+        <v>0.6181959595694764</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.427895420563942</v>
+        <v>0.7690445054074218</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.677860922143509</v>
+        <v>4.954177789415837</v>
       </c>
       <c r="C19">
-        <v>0.4391538895376357</v>
+        <v>1.349825144499619</v>
       </c>
       <c r="D19">
-        <v>0.4551360984943926</v>
+        <v>0.6173714443660572</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8361839476829545</v>
+        <v>0.6152793080733474</v>
       </c>
       <c r="G19">
-        <v>0.2918745971061227</v>
+        <v>0.221098101178832</v>
       </c>
       <c r="H19">
-        <v>0.4597913755455778</v>
+        <v>0.1646861062416107</v>
       </c>
       <c r="I19">
-        <v>0.2778858596885829</v>
+        <v>0.04240760336752558</v>
       </c>
       <c r="J19">
-        <v>0.3844148757481918</v>
+        <v>0.6129784213364218</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.428988598446026</v>
+        <v>0.7655148304662589</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.739325091253306</v>
+        <v>5.145251539583853</v>
       </c>
       <c r="C20">
-        <v>0.4556714179889241</v>
+        <v>1.400653734425134</v>
       </c>
       <c r="D20">
-        <v>0.4607934820925834</v>
+        <v>0.6397780820785499</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8367300013288528</v>
+        <v>0.6327846883225305</v>
       </c>
       <c r="G20">
-        <v>0.2913322461775394</v>
+        <v>0.2280020677668233</v>
       </c>
       <c r="H20">
-        <v>0.4579915453634129</v>
+        <v>0.1653641632674123</v>
       </c>
       <c r="I20">
-        <v>0.2750682971983416</v>
+        <v>0.03939059922011978</v>
       </c>
       <c r="J20">
-        <v>0.3897742993861328</v>
+        <v>0.6365232852106857</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.424167622919555</v>
+        <v>0.7817169185653938</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.945361810524389</v>
+        <v>5.788492541205414</v>
       </c>
       <c r="C21">
-        <v>0.5110199087277465</v>
+        <v>1.571707402441291</v>
       </c>
       <c r="D21">
-        <v>0.4799738156135618</v>
+        <v>0.715747117109089</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8393794288200951</v>
+        <v>0.6943285974470115</v>
       </c>
       <c r="G21">
-        <v>0.2899585377222138</v>
+        <v>0.2529863083031358</v>
       </c>
       <c r="H21">
-        <v>0.4523205342424035</v>
+        <v>0.1686353752115295</v>
       </c>
       <c r="I21">
-        <v>0.2659878913509157</v>
+        <v>0.03047719432473173</v>
       </c>
       <c r="J21">
-        <v>0.4080272379676018</v>
+        <v>0.7168557405147169</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.409697191311764</v>
+        <v>0.8420124198802341</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.079650149088764</v>
+        <v>6.210066565820455</v>
       </c>
       <c r="C22">
-        <v>0.5470787570482685</v>
+        <v>1.683765838598333</v>
       </c>
       <c r="D22">
-        <v>0.4926366308290824</v>
+        <v>0.7659661534765405</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8417199828360964</v>
+        <v>0.7367621630785237</v>
       </c>
       <c r="G22">
-        <v>0.2893970655337768</v>
+        <v>0.2707676478284071</v>
       </c>
       <c r="H22">
-        <v>0.448895118889169</v>
+        <v>0.1715673910265707</v>
       </c>
       <c r="I22">
-        <v>0.2603425332772238</v>
+        <v>0.02563128417293381</v>
       </c>
       <c r="J22">
-        <v>0.4201401541557317</v>
+        <v>0.7703736051204828</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.401532882039987</v>
+        <v>0.8861534721150406</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.008012614282791</v>
+        <v>5.98494061189399</v>
       </c>
       <c r="C23">
-        <v>0.5278442231141298</v>
+        <v>1.623929946359226</v>
       </c>
       <c r="D23">
-        <v>0.4858666626041099</v>
+        <v>0.7391073969283468</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8404149497763882</v>
+        <v>0.7139004102766506</v>
       </c>
       <c r="G23">
-        <v>0.2896658293066494</v>
+        <v>0.2611364813863517</v>
       </c>
       <c r="H23">
-        <v>0.4506975880897173</v>
+        <v>0.169926262578656</v>
       </c>
       <c r="I23">
-        <v>0.2633290170336258</v>
+        <v>0.02812350292655807</v>
       </c>
       <c r="J23">
-        <v>0.4136584530219096</v>
+        <v>0.7417102647765432</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.405771669184517</v>
+        <v>0.8621368402555731</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.735951519468301</v>
+        <v>5.134754529704765</v>
       </c>
       <c r="C24">
-        <v>0.4547649008679855</v>
+        <v>1.397861573783189</v>
       </c>
       <c r="D24">
-        <v>0.4604821547160611</v>
+        <v>0.6385451777630067</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.836696953971817</v>
+        <v>0.6318135482996752</v>
       </c>
       <c r="G24">
-        <v>0.2913603473767239</v>
+        <v>0.2276165036745468</v>
       </c>
       <c r="H24">
-        <v>0.4580889696743711</v>
+        <v>0.1653233241392229</v>
       </c>
       <c r="I24">
-        <v>0.2752215747644655</v>
+        <v>0.03955184297779901</v>
       </c>
       <c r="J24">
-        <v>0.3894790604950771</v>
+        <v>0.6352259572001913</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.424425883444897</v>
+        <v>0.7808060388975093</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.441003315566377</v>
+        <v>4.221240145341596</v>
       </c>
       <c r="C25">
-        <v>0.3754719321167386</v>
+        <v>1.154777827674536</v>
       </c>
       <c r="D25">
-        <v>0.4336544106836868</v>
+        <v>0.5321508977081635</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8352897452290335</v>
+        <v>0.5516411302583037</v>
       </c>
       <c r="G25">
-        <v>0.2946188591388221</v>
+        <v>0.1969380353615335</v>
       </c>
       <c r="H25">
-        <v>0.4672642825949467</v>
+        <v>0.1634269842492913</v>
       </c>
       <c r="I25">
-        <v>0.289282535426385</v>
+        <v>0.05565644195506536</v>
       </c>
       <c r="J25">
-        <v>0.364184298307535</v>
+        <v>0.5240784234265305</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.450062801106597</v>
+        <v>0.7110820158573148</v>
       </c>
     </row>
   </sheetData>
